--- a/minutes/8팀_상세일정(WBS).xlsx
+++ b/minutes/8팀_상세일정(WBS).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haeinasmac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haeinasmac/Desktop/capstone_design/minutes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06262BD-A923-FF43-9224-DE007FF316EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F83EA97-F168-9B43-801F-DF70EA0ED094}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8팀 상세일정" sheetId="4" r:id="rId1"/>
@@ -832,7 +832,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -987,6 +987,130 @@
   </si>
   <si>
     <t>8팀 (이해인, 최주형, 최혜원)은 개별 프로젝트로서 상세일정은 시트 3개에 나눠 개별 기입했습니다. 아래 시트에서 확인해주시면 감사하겠습니다!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpo library 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node.js + mysql 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>react.js app 시작하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aws 서버 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동배포 설정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 및 파일 s3 서버 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql table 설정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 api 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user api 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model api 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp api 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 대시보드 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 프로젝트 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpo gui 툴 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpo 대시보드 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 hpo 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">python </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python sdk 개발하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyper-opt 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python sdk pypi 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk 배포를 위한 파이파이 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aws에 버킷 설정 후 s3 서버 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포를 위한 ec2서버와 디비 서버 rds 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins를 이용한 자동배포 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redux middelware 를 포함한 초기 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,7 +1270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,25 +1280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1188,6 +1294,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1249,7 +1382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1301,7 +1434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1505,613 +1638,613 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED41E84-2C08-3F4B-BD90-CA5B2246E986}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2124,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K24"/>
+  <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2179,10 +2312,10 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2191,16 +2324,16 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="4">
         <v>44257</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="4">
         <v>44258</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="4">
         <v>44257</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="4">
         <v>44258</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2212,8 +2345,8 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2222,16 +2355,16 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>44258</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="4">
         <v>44260</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="4">
         <v>44258</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="4">
         <v>44260</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -2243,24 +2376,24 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>44261</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="4">
         <v>44263</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="4">
         <v>44261</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="4">
         <v>44263</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -2272,24 +2405,24 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>44264</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="4">
         <v>44266</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="4">
         <v>44264</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="4">
         <v>44266</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2301,24 +2434,24 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="5">
         <v>44266</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="5">
         <v>44269</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="5">
         <v>44266</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="5">
         <v>44269</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2330,10 +2463,10 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2342,16 +2475,16 @@
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="4">
         <v>44270</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="4">
         <v>44273</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="4">
         <v>44270</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="4">
         <v>44273</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -2363,24 +2496,24 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="4">
         <v>44274</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="4">
         <v>44277</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="4">
         <v>44274</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="4">
         <v>44277</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -2392,24 +2525,24 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="4">
         <v>44278</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="4">
         <v>44285</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="4">
         <v>44278</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="4">
         <v>44285</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -2423,8 +2556,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2433,16 +2566,16 @@
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="4">
         <v>44279</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="4">
         <v>44285</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="4">
         <v>44279</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="4">
         <v>44285</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -2454,24 +2587,24 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="4">
         <v>44286</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="4">
         <v>44289</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="4">
         <v>44286</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="4">
         <v>44289</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -2483,163 +2616,483 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44289</v>
+      </c>
+      <c r="F13" s="4">
+        <v>44294</v>
+      </c>
+      <c r="G13" s="4">
+        <v>44289</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="4">
+        <v>44294</v>
+      </c>
+      <c r="F14" s="4">
+        <v>44294</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="4">
+        <v>44294</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44295</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="4">
+        <v>44295</v>
+      </c>
+      <c r="F16" s="4">
+        <v>44297</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="4">
+        <v>44295</v>
+      </c>
+      <c r="F17" s="4">
+        <v>44297</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="4">
+        <v>44295</v>
+      </c>
+      <c r="F18" s="4">
+        <v>44297</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="4">
+        <v>44295</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44297</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44298</v>
+      </c>
+      <c r="F20" s="4">
+        <v>44301</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="4">
+        <v>44302</v>
+      </c>
+      <c r="F21" s="4">
+        <v>44306</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="4">
+        <v>44306</v>
+      </c>
+      <c r="F22" s="4">
+        <v>44311</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="4">
+        <v>44312</v>
+      </c>
+      <c r="F23" s="4">
+        <v>44316</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="4">
+        <v>44317</v>
+      </c>
+      <c r="F24" s="4">
+        <v>44321</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="12"/>
+      <c r="B25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="4">
+        <v>44322</v>
+      </c>
+      <c r="F25" s="4">
+        <v>44326</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="4">
+        <v>44327</v>
+      </c>
+      <c r="F26" s="4">
+        <v>44331</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="12"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="4">
+        <v>44332</v>
+      </c>
+      <c r="F27" s="4">
+        <v>44336</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="12"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="4">
+        <v>44337</v>
+      </c>
+      <c r="F28" s="4">
+        <v>44341</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="4">
+        <v>44342</v>
+      </c>
+      <c r="F29" s="4">
+        <v>44346</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="12"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="4">
+        <v>44347</v>
+      </c>
+      <c r="F30" s="4">
+        <v>44351</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="4">
+        <v>44352</v>
+      </c>
+      <c r="F31" s="4">
+        <v>44356</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="13"/>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="4">
+        <v>44357</v>
+      </c>
+      <c r="F32" s="4">
+        <v>44361</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A13:A32"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
